--- a/stage1.xlsx
+++ b/stage1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12575" windowHeight="11004"/>
+    <workbookView windowWidth="15684" windowHeight="11004"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -957,7 +957,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -999,22 +999,22 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
